--- a/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
+++ b/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Coding\Coding_Dojo\14Wk_Bootcamp\1-Web_Fundamentals\Morning_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC33A6AD-2C23-4892-ACF5-11F4A63CC1E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590506D-D57E-4A51-B5A8-F2D18E461E12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="0" windowWidth="15375" windowHeight="15600" activeTab="6" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="15600" activeTab="3" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
   </bookViews>
   <sheets>
     <sheet name="W1D2" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="314">
   <si>
     <t>Variable</t>
   </si>
@@ -915,6 +915,87 @@
   </si>
   <si>
     <t>Note - Don't assume the array will always be the same size, we must rely on its .length property</t>
+  </si>
+  <si>
+    <t>fruit1</t>
+  </si>
+  <si>
+    <t>fruit2</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>→ apples</t>
+  </si>
+  <si>
+    <t>apples and apples</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>apples → oranges</t>
+  </si>
+  <si>
+    <t>oranges → apples</t>
+  </si>
+  <si>
+    <t>apples and oranges</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>0 &lt; 12</t>
+  </si>
+  <si>
+    <t>start: 0, end: 12</t>
+  </si>
+  <si>
+    <t>function reverseArray(arr) {</t>
+  </si>
+  <si>
+    <t>start: 2, end: 10</t>
+  </si>
+  <si>
+    <t>start: 4, end: 8</t>
+  </si>
+  <si>
+    <t>2 &lt; 10</t>
+  </si>
+  <si>
+    <t>4 &lt; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   var = revArr[];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   for (var i = 0; i &lt; arr.length; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   revArr[i] = arr[arr.length - i - 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return revArr;</t>
+  </si>
+  <si>
+    <t>console.log(reverseArray(["a", "b", "c", "d", "e"]));</t>
+  </si>
+  <si>
+    <t>0 → 2 → 4</t>
+  </si>
+  <si>
+    <t>12 → 10 → 8</t>
   </si>
 </sst>
 </file>
@@ -1249,6 +1330,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1266,20 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1604,7 +1685,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1621,19 +1702,19 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -1735,10 +1816,10 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1832,10 +1913,10 @@
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2021,19 +2102,19 @@
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="36"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
@@ -2170,10 +2251,10 @@
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="36"/>
       <c r="F14" s="9"/>
       <c r="G14" s="17"/>
     </row>
@@ -2287,10 +2368,10 @@
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="36"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,7 +2526,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2462,19 +2543,19 @@
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -2585,10 +2666,10 @@
       <c r="A12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2709,10 +2790,10 @@
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2896,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CACBE6D-D2E7-45F6-8EF2-70D2BC010175}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2916,19 +2997,19 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -2942,24 +3023,30 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -2968,7 +3055,9 @@
         <v>130</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -3004,7 +3093,9 @@
       <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -3022,10 +3113,10 @@
       <c r="A12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3041,25 +3132,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="9"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3068,8 +3165,12 @@
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3100,7 +3201,9 @@
       <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -3111,10 +3214,10 @@
       <c r="A22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3126,23 +3229,34 @@
       <c r="D23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3150,30 +3264,38 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="8" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
@@ -3193,27 +3315,62 @@
       <c r="C32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D32" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3233,7 +3390,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3250,19 +3407,19 @@
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -3280,7 +3437,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
@@ -3334,8 +3491,8 @@
       <c r="A10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -3382,10 +3539,10 @@
       <c r="A15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3405,7 +3562,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="33"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,8 +3604,8 @@
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3492,10 +3649,10 @@
       <c r="A29" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3675,19 +3832,19 @@
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -3784,7 +3941,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="3"/>
@@ -3794,7 +3951,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="3"/>
@@ -3804,19 +3961,19 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="30" t="s">
         <v>212</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3830,57 +3987,57 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="30" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="30" t="s">
         <v>214</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>215</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="30" t="s">
         <v>216</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="30" t="s">
         <v>218</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="30" t="s">
         <v>220</v>
       </c>
       <c r="C24" s="7"/>
@@ -3888,7 +4045,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="30" t="s">
         <v>221</v>
       </c>
       <c r="C25" s="7"/>
@@ -3896,7 +4053,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="30" t="s">
         <v>222</v>
       </c>
       <c r="C26" s="7"/>
@@ -3904,7 +4061,7 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="30" t="s">
         <v>223</v>
       </c>
       <c r="C27" s="7"/>
@@ -3912,7 +4069,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="30" t="s">
         <v>224</v>
       </c>
       <c r="C28" s="7"/>
@@ -3920,28 +4077,28 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="30" t="s">
         <v>225</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="30" t="s">
         <v>226</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="30" t="s">
         <v>227</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="30" t="s">
         <v>228</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3950,17 +4107,17 @@
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="30" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3988,10 +4145,10 @@
       <c r="A40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -4044,7 +4201,7 @@
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="31" t="s">
         <v>240</v>
       </c>
       <c r="C48" s="7"/>
@@ -4055,7 +4212,7 @@
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="26" t="s">
         <v>242</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -4085,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7DF080-68C8-4BF9-94B3-7FDEFD59F87B}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -4103,19 +4260,19 @@
       <c r="A1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -4215,7 +4372,7 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="31" t="s">
         <v>254</v>
       </c>
       <c r="C13" s="3"/>
@@ -4250,10 +4407,10 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4267,7 +4424,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="31" t="s">
         <v>256</v>
       </c>
       <c r="C19" s="7"/>
@@ -4311,8 +4468,8 @@
       <c r="A25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4356,7 +4513,7 @@
       <c r="A44" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
+++ b/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Coding\Coding_Dojo\14Wk_Bootcamp\1-Web_Fundamentals\Morning_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590506D-D57E-4A51-B5A8-F2D18E461E12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318174B3-FE81-4C16-A54C-E2003B16E666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="15600" activeTab="3" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="15600" activeTab="4" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
   </bookViews>
   <sheets>
     <sheet name="W1D2" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="320">
   <si>
     <t>Variable</t>
   </si>
@@ -996,6 +996,24 @@
   </si>
   <si>
     <t>12 → 10 → 8</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>0-1 (exlusive of 1)</t>
+  </si>
+  <si>
+    <t>random cannot be predicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  roll = Math.floor(Math.random() * 6) + 1;</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CACBE6D-D2E7-45F6-8EF2-70D2BC010175}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -3389,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F936E-E60C-4702-B367-843A07324850}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3437,8 +3455,12 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
     </row>
@@ -3446,8 +3468,12 @@
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -3455,8 +3481,12 @@
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
@@ -3510,7 +3540,9 @@
       <c r="C12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>318</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3581,7 +3613,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>

--- a/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
+++ b/1-Web_Fundamentals/Morning_Algorithms/W1D2-W2D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Coding\Coding_Dojo\14Wk_Bootcamp\1-Web_Fundamentals\Morning_Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318174B3-FE81-4C16-A54C-E2003B16E666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE94CF-B319-434F-BD98-B995ECD11DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="15600" activeTab="4" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="15600" activeTab="5" xr2:uid="{E4928679-45DA-4438-A4D6-B588292D01FF}"/>
   </bookViews>
   <sheets>
     <sheet name="W1D2" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="352">
   <si>
     <t>Variable</t>
   </si>
@@ -1014,6 +1014,102 @@
   </si>
   <si>
     <t xml:space="preserve">  roll = Math.floor(Math.random() * 6) + 1;</t>
+  </si>
+  <si>
+    <t>console.log(monster['name']);</t>
+  </si>
+  <si>
+    <t>1, 4, 0-1 (exclusive of 1)</t>
+  </si>
+  <si>
+    <t>function response(arr) {</t>
+  </si>
+  <si>
+    <t>  randomAnswer = Math.floor(Math.random() * arr.length);</t>
+  </si>
+  <si>
+    <t>  console.log(arr[randomAnswer]);</t>
+  </si>
+  <si>
+    <t>response(lifesAnswers);</t>
+  </si>
+  <si>
+    <t>var lifesAnswers = ["yes", "no", "maybe", "kinda sorta"];</t>
+  </si>
+  <si>
+    <t>var lifesOtherAnswers = ["um", "okay", "I guess"];</t>
+  </si>
+  <si>
+    <t>function oracle(arr) {</t>
+  </si>
+  <si>
+    <t>  return arr[Math.floor(Math.random() * arr.length)];</t>
+  </si>
+  <si>
+    <t>var result1 = oracle(lifesAnswers);</t>
+  </si>
+  <si>
+    <t>var result2 = oracle(lifesOtherAnswers);</t>
+  </si>
+  <si>
+    <t>console.log(monster.type[1]);</t>
+  </si>
+  <si>
+    <t>for (var i = 0; i &lt; pokemon.length; i++) {</t>
+  </si>
+  <si>
+    <t>  if (pokemon[i].id % 3 == 0) {</t>
+  </si>
+  <si>
+    <t>    console.log(pokemon[i]);</t>
+  </si>
+  <si>
+    <t>  if (pokemon[i].types.length &gt; 1) {</t>
+  </si>
+  <si>
+    <t>    console.log(pokemon[i].name);</t>
+  </si>
+  <si>
+    <t>  if (pokemon[i].types.length === 1 &amp;&amp; pokemon[i].types[0] === "poison") {</t>
+  </si>
+  <si>
+    <t>  if (pokemon[i].types.length === 2 &amp;&amp; pokemon[i].types[1] === "flying") {</t>
+  </si>
+  <si>
+    <t>    console.log(pokemon[i].types[0]);</t>
+  </si>
+  <si>
+    <t>var temp = [];</t>
+  </si>
+  <si>
+    <t>for (var i = 0; i &lt;= pokemon.length - 1; i++) {</t>
+  </si>
+  <si>
+    <t>  if (pokemon[i].types.length == 1) {</t>
+  </si>
+  <si>
+    <t>    if (pokemon[i].types[0] == "poison") {</t>
+  </si>
+  <si>
+    <t>      temp.push(pokemon[i].name);</t>
+  </si>
+  <si>
+    <t>var newstring = "";</t>
+  </si>
+  <si>
+    <t>for (var i = 0; i &lt;= temp.length - 1; i++) {</t>
+  </si>
+  <si>
+    <t>  for (var j = temp[i].length - 1; j &gt;= 0; j--) {</t>
+  </si>
+  <si>
+    <t>    newstring += temp[i][j];</t>
+  </si>
+  <si>
+    <t>  newstring += " ";</t>
+  </si>
+  <si>
+    <t>console.log(newstring);</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1378,6 +1474,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1703,7 +1811,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1922,7 @@
       <c r="C10" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F10" s="3"/>
@@ -1918,7 +2026,7 @@
       <c r="C20" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2051,25 +2159,25 @@
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2103,7 +2211,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D36" activeCellId="2" sqref="D12 D24 D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2358,7 @@
       <c r="C12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F12" s="17"/>
@@ -2369,7 +2477,7 @@
       <c r="C24" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F24" s="6"/>
@@ -2477,7 +2585,7 @@
       <c r="C36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2544,7 +2652,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D34" activeCellId="2" sqref="D10 D20 D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2771,7 @@
       <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="3"/>
@@ -2793,7 +2901,7 @@
       <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="38" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2939,7 +3047,7 @@
       <c r="C34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="38" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2948,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="38" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2998,7 +3106,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D32" activeCellId="2" sqref="D10 D20 D32:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3219,7 @@
       <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="38" t="s">
         <v>292</v>
       </c>
       <c r="F10" s="3"/>
@@ -3219,7 +3327,7 @@
       <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="38" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3333,7 +3441,7 @@
       <c r="C32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="38" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3341,12 +3449,12 @@
       <c r="A33" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3407,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F936E-E60C-4702-B367-843A07324850}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3518,7 +3626,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C10" s="28"/>
@@ -3527,7 +3635,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="10"/>
@@ -3540,8 +3648,8 @@
       <c r="C12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>318</v>
+      <c r="D12" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
@@ -3552,12 +3660,14 @@
         <v>168</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="38" t="s">
+        <v>318</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>169</v>
       </c>
@@ -3571,10 +3681,8 @@
       <c r="A15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3583,78 +3691,72 @@
       <c r="A16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="27"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="24"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="24"/>
       <c r="F25" s="9"/>
     </row>
@@ -3671,91 +3773,97 @@
       <c r="D27" s="3"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="39"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>40</v>
+      <c r="C39" s="38" t="s">
+        <v>326</v>
       </c>
       <c r="D39" s="24"/>
     </row>
@@ -3763,68 +3871,96 @@
       <c r="A40" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C40" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="C42" s="40" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C43" s="40" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="C44" s="40" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C46" s="40" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C47" s="40" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -3844,10 +3980,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0835481-358D-4630-950E-DD8940ABE7DF}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3860,12 +3996,12 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
@@ -3873,10 +4009,8 @@
       <c r="A2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="33"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
@@ -3884,12 +4018,8 @@
       <c r="A3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="F3" s="9"/>
       <c r="G3" s="3"/>
     </row>
@@ -3897,8 +4027,10 @@
       <c r="A4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
     </row>
@@ -3906,8 +4038,10 @@
       <c r="A5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -3915,14 +4049,14 @@
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -3930,8 +4064,8 @@
       <c r="A8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -3939,23 +4073,23 @@
       <c r="A9" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="13"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3964,10 +4098,8 @@
       <c r="A12" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="24"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="13"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3977,17 +4109,17 @@
         <v>209</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="3"/>
@@ -3996,10 +4128,8 @@
       <c r="A15" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="13"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4008,12 +4138,8 @@
       <c r="A16" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="13"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4022,126 +4148,126 @@
       <c r="A17" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="24"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>229</v>
       </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -4168,102 +4294,274 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="33"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="24"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>241</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C40:D40"/>
+  <mergeCells count="3">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
